--- a/ProjectCore/ProjectData/CourseData.xlsx
+++ b/ProjectCore/ProjectData/CourseData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15132" windowHeight="9300"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Course" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Systemy CAD/CAE</t>
+  </si>
+  <si>
+    <t>Testowanie</t>
   </si>
 </sst>
 </file>
@@ -715,19 +718,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="25.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -743,7 +746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -751,7 +754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -759,7 +762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -767,7 +770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -775,7 +778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -783,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -791,7 +794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -799,7 +802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -807,7 +810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -815,7 +818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -823,7 +826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -831,7 +834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -839,7 +842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -847,7 +850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -855,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -863,7 +866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -871,7 +874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -879,7 +882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -887,7 +890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -895,7 +898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -903,7 +906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -911,7 +914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -919,7 +922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -927,7 +930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -935,7 +938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -943,7 +946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -951,7 +954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -959,7 +962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -967,7 +970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -975,7 +978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -983,7 +986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -991,7 +994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1039,7 +1042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1087,7 +1090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1095,7 +1098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1175,7 +1178,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1191,7 +1194,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -1231,12 +1234,20 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
